--- a/medicine/Enfance/La_Forteresse_suspendue/La_Forteresse_suspendue.xlsx
+++ b/medicine/Enfance/La_Forteresse_suspendue/La_Forteresse_suspendue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Forteresse suspendue est un film québécois réalisé par Roger Cantin, sorti en 2001 et mettant en vedette Matthew Dupuis, Roxane Gaudette-Loiseau et Jérôme Leclerc-Couture[1]. Il fait partie de la série de films pour la jeunesse Contes pour tous, le film étant la suite de La Guerre des tuques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Forteresse suspendue est un film québécois réalisé par Roger Cantin, sorti en 2001 et mettant en vedette Matthew Dupuis, Roxane Gaudette-Loiseau et Jérôme Leclerc-Couture. Il fait partie de la série de films pour la jeunesse Contes pour tous, le film étant la suite de La Guerre des tuques.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film présente des enfants jouant à la guerre dans une forêt. Une bande défend une maison construite dans les arbres alors qu'une autre bande tente de s'en emparer. Les gens pensent qu'un ours rôde dans le camping.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Forteresse suspendue
 Réalisation : Roger Cantin
@@ -558,16 +574,16 @@
 Production : Rock Demers et Chantal Lafleur
 Société de production : Les Productions La Fête
 Sociétés de distribution : Equinoxe Films
-Budget : 4 millions $ CA[2]
+Budget : 4 millions $ CA
 Pays de production :  Canada
 Langue originale : français
 Format : couleur — 35 mm — son Dolby numérique
 Genre : comédie, film pour enfants
 Durée : 95 minutes
 Dates de sortie :
-Canada : 11 juin 2001 (avant-première au Cinéma 9 à Rock Forest)[3]
-Canada : 13 juin 2001 (avant-première au Cinéma Odyssée à Chicoutimi)[4]
-Canada : 14 juin 2001 (avant-première au Cinéma Beauport à Beauport)[5]
+Canada : 11 juin 2001 (avant-première au Cinéma 9 à Rock Forest)
+Canada : 13 juin 2001 (avant-première au Cinéma Odyssée à Chicoutimi)
+Canada : 14 juin 2001 (avant-première au Cinéma Beauport à Beauport)
 Canada : 22 juin 2001 (sortie en salle au Québec)
 Pays-Bas : 22 octobre 2001 (Cinekid Festival à Amsterdam)
 États-Unis : 29 octobre 2001 (Festival international du film pour enfants de Chicago (en))
@@ -576,7 +592,7 @@
 Canada : 28 mai 2002 (DVD)
 Royaume-Uni : 29 juin 2002 (Festival du film du Commonwealth à Manchester)
 Classification :
-Québec : Visa général[6]</t>
+Québec : Visa général</t>
         </is>
       </c>
     </row>
@@ -604,7 +620,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Matthew Dupuis : Marc Chabot
 Roxane Gaudette-Loiseau : Sarah Chabot
